--- a/lib_conference_spider/examples/SWIB-talks-2023-2023.xlsx
+++ b/lib_conference_spider/examples/SWIB-talks-2023-2023.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -649,7 +652,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,13 +663,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1134,156 +1130,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1633,7 +1631,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2034,10 +2032,10 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>79</v>
       </c>
       <c r="H14" t="s">
@@ -2570,6 +2568,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F14" r:id="rId1" display="https://swib.org/swib23/programme.html#day1"/>
+    <hyperlink ref="G14" r:id="rId2" display="https://docs.google.com/presentation/d/1gZI5jX-m2R0fOA7tKMHo8sMGgw0e0OutVLcDEhxBgfs/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
